--- a/OrangeHRM (Demo)/Test Cases_OHRM.xlsx
+++ b/OrangeHRM (Demo)/Test Cases_OHRM.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="2" r:id="rId1"/>
     <sheet name="Test Scenarios" sheetId="3" r:id="rId2"/>
     <sheet name="Login" sheetId="10" r:id="rId3"/>
+    <sheet name="Add Employee" sheetId="11" r:id="rId4"/>
+    <sheet name="Leave" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="87">
   <si>
     <t>Project Name</t>
   </si>
@@ -91,13 +93,22 @@
     <t>P0</t>
   </si>
   <si>
+    <t>07</t>
+  </si>
+  <si>
     <t>TS_002</t>
   </si>
   <si>
+    <t>Verification of add employee functionality</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>TS_003</t>
+  </si>
+  <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>TS_003</t>
   </si>
   <si>
     <t>TS_004</t>
@@ -255,6 +266,92 @@
   <si>
     <t xml:space="preserve">Username: 
 Password: </t>
+  </si>
+  <si>
+    <t>Verify adding of employee with all details</t>
+  </si>
+  <si>
+    <t>1. Open and load the application url
+2. Logged in as an admin</t>
+  </si>
+  <si>
+    <t>1. Click on "PIM"
+2. Click on "Add Employee"
+3. Enter details in all the fields
+4. Click in "Save Button"</t>
+  </si>
+  <si>
+    <t>First Name: f2
+Middle Name: g
+Last Name: s
+Employee Id: 0401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. A message " Saved Sucessfully" should be displayed
+2.  Should be taken to "Personal Details" page
+</t>
+  </si>
+  <si>
+    <t>Verify adding of employee with mandatory details only</t>
+  </si>
+  <si>
+    <t>1. Click on "PIM"
+2. Click on "Add Employee"
+3. Enter first name, first name and employee id
+4. Keep middle name blank
+5. Click in "Save Button"</t>
+  </si>
+  <si>
+    <t>First Name: f3
+Middle Name: 
+Last Name: s
+Employee Id: 0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify not adding of employee without mandatory details </t>
+  </si>
+  <si>
+    <t>1. Click on "PIM"
+2. Click on "Add Employee"
+3. Keep all fields blank
+4. Click in "Save Button"</t>
+  </si>
+  <si>
+    <t>First Name: f2
+Middle Name: g
+Last Name: s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should not be added
+2.  Should display field warning "Required" under each field
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify "create login details" slider is working </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on "PIM"
+2. Click on "Add Employee"
+3. Click the "create login details" slider
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Upon clicking additional details should be displayed
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify employee profile picture is working </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click on "PIM"
+2. Click on "Add Employee"
+3. Click on the "+" button
+4. Add the picture from the file explorer 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Upon clicking file explorer should display and  user should be able to add their picture
+</t>
   </si>
 </sst>
 </file>
@@ -682,7 +779,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
       <right style="thin">
         <color theme="1"/>
       </right>
@@ -695,9 +794,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color theme="1"/>
       </right>
@@ -1061,7 +1158,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1088,34 +1185,34 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,14 +1221,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1153,6 +1256,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1487,56 +1593,56 @@
   </cols>
   <sheetData>
     <row r="6" spans="9:10">
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="7:10">
       <c r="G7" s="16"/>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="32" t="s">
+      <c r="I7" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="31"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="8:10">
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="31"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="8:10">
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="8:10">
-      <c r="H10" s="29"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="8:10">
-      <c r="H11" s="29"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
     </row>
     <row r="12" spans="8:10">
-      <c r="H12" s="29"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
     </row>
     <row r="13" spans="8:10">
-      <c r="H13" s="30"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1553,7 +1659,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1637,234 +1743,238 @@
       <c r="A11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="23" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="36" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="23"/>
+        <v>21</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="24"/>
+        <v>23</v>
+      </c>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="B13" s="13"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="B14" s="13"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B15" s="13"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="B16" s="13"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="23"/>
       <c r="D17" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="22"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="23"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="22"/>
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="23"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="24"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="22"/>
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="23"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="24"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="22"/>
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="24"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="22"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="23"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="24"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="22"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="23"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="24"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="22"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="23"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="24"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="22"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="24"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="22"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="23"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="24"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="22"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="23"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="24"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="22"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="23"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="24"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="22"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="23"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="24"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="22"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="23"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="24"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="22"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="23"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="24"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="22"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="23"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="24"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="22"/>
-      <c r="B33" s="14"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="23"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="24"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="22"/>
-      <c r="B34" s="14"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="23"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="24"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="22"/>
-      <c r="B35" s="14"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="23"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="24"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="22"/>
-      <c r="B36" s="14"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="23"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="24"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="26"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:5">
       <c r="A37" s="22"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="24"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="26"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="22"/>
-      <c r="B38" s="14"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="23"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="24"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="22"/>
-      <c r="B39" s="14"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="23"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="24"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1886,7 +1996,7 @@
   <sheetPr/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1909,40 +2019,40 @@
   <sheetData>
     <row r="1" ht="30" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" ht="60" spans="1:12">
@@ -1953,25 +2063,25 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="7"/>
@@ -1985,29 +2095,29 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="15" t="s">
+      <c r="H3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" ht="75" spans="1:12">
       <c r="A4" s="3" t="s">
@@ -2017,29 +2127,29 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="15" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
     </row>
     <row r="5" ht="75" spans="1:12">
       <c r="A5" s="3" t="s">
@@ -2049,29 +2159,29 @@
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
     </row>
     <row r="6" ht="75" spans="1:12">
       <c r="A6" s="3" t="s">
@@ -2081,29 +2191,29 @@
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" ht="75" spans="1:12">
       <c r="A7" s="3" t="s">
@@ -2113,29 +2223,29 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" ht="75" spans="1:12">
       <c r="A8" s="3" t="s">
@@ -2145,29 +2255,29 @@
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3"/>
@@ -2176,194 +2286,1102 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="14"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="14"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="14"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="14"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="14"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="14"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="14"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="14"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5714285714286" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="75" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" ht="90" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" ht="60" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" ht="75" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" ht="90" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="13"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.4285714285714" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5714285714286" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="75" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" ht="90" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" ht="60" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" ht="75" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" ht="90" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="13"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="13"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="13"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="13"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="13"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="13"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OrangeHRM (Demo)/Test Cases_OHRM.xlsx
+++ b/OrangeHRM (Demo)/Test Cases_OHRM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="12180" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version History" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="88">
   <si>
     <t>Project Name</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>P1</t>
+  </si>
+  <si>
+    <t>05</t>
   </si>
   <si>
     <t>TS_003</t>
@@ -1158,7 +1161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1226,9 +1229,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1593,56 +1593,56 @@
   </cols>
   <sheetData>
     <row r="6" spans="9:10">
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="7:10">
       <c r="G7" s="16"/>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="33"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="8:10">
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="33"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="8:10">
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="35"/>
+      <c r="J9" s="34"/>
     </row>
     <row r="10" spans="8:10">
-      <c r="H10" s="31"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
     </row>
     <row r="11" spans="8:10">
-      <c r="H11" s="31"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="8:10">
-      <c r="H12" s="31"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="8:10">
-      <c r="H13" s="32"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1658,8 +1658,8 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1750,7 +1750,7 @@
       <c r="D11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1765,216 +1765,218 @@
       <c r="D12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="35" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="25"/>
+        <v>26</v>
+      </c>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="23"/>
       <c r="D14" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="25"/>
+        <v>26</v>
+      </c>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="23"/>
       <c r="D15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="25"/>
+        <v>26</v>
+      </c>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="23"/>
       <c r="D16" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="25"/>
+        <v>26</v>
+      </c>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="23"/>
       <c r="D17" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="25"/>
+        <v>26</v>
+      </c>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="22"/>
       <c r="B18" s="13"/>
       <c r="C18" s="23"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="26"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="22"/>
       <c r="B19" s="13"/>
       <c r="C19" s="23"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="22"/>
       <c r="B20" s="13"/>
       <c r="C20" s="23"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="26"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="22"/>
       <c r="B21" s="13"/>
       <c r="C21" s="23"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="26"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="22"/>
       <c r="B22" s="13"/>
       <c r="C22" s="23"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="26"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="22"/>
       <c r="B23" s="13"/>
       <c r="C23" s="23"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="26"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="22"/>
       <c r="B24" s="13"/>
       <c r="C24" s="23"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="26"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="22"/>
       <c r="B25" s="13"/>
       <c r="C25" s="23"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="26"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="22"/>
       <c r="B26" s="13"/>
       <c r="C26" s="23"/>
       <c r="D26" s="13"/>
-      <c r="E26" s="26"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="22"/>
       <c r="B27" s="13"/>
       <c r="C27" s="23"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="22"/>
       <c r="B28" s="13"/>
       <c r="C28" s="23"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="26"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="22"/>
       <c r="B29" s="13"/>
       <c r="C29" s="23"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="26"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="22"/>
       <c r="B30" s="13"/>
       <c r="C30" s="23"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="26"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="22"/>
       <c r="B31" s="13"/>
       <c r="C31" s="23"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="26"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="22"/>
       <c r="B32" s="13"/>
       <c r="C32" s="23"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="26"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="22"/>
       <c r="B33" s="13"/>
       <c r="C33" s="23"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="26"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="22"/>
       <c r="B34" s="13"/>
       <c r="C34" s="23"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="26"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="22"/>
       <c r="B35" s="13"/>
       <c r="C35" s="23"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="26"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="22"/>
       <c r="B36" s="13"/>
       <c r="C36" s="23"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="26"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:5">
       <c r="A37" s="22"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="27"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="13"/>
-      <c r="E37" s="26"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="22"/>
       <c r="B38" s="13"/>
       <c r="C38" s="23"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="26"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="22"/>
       <c r="B39" s="13"/>
       <c r="C39" s="23"/>
       <c r="D39" s="13"/>
-      <c r="E39" s="26"/>
+      <c r="E39" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2019,40 +2021,40 @@
   <sheetData>
     <row r="1" ht="30" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="60" spans="1:12">
@@ -2063,22 +2065,22 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="14" t="s">
@@ -2095,22 +2097,22 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="14" t="s">
@@ -2127,22 +2129,22 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="14" t="s">
@@ -2159,22 +2161,22 @@
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="14" t="s">
@@ -2191,22 +2193,22 @@
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="14" t="s">
@@ -2223,22 +2225,22 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="14" t="s">
@@ -2255,22 +2257,22 @@
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="14" t="s">
@@ -2509,40 +2511,40 @@
   <sheetData>
     <row r="1" ht="30" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:12">
@@ -2553,22 +2555,22 @@
         <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="14" t="s">
@@ -2585,22 +2587,22 @@
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="14" t="s">
@@ -2617,22 +2619,22 @@
         <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="14" t="s">
@@ -2649,22 +2651,22 @@
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="14" t="s">
@@ -2681,22 +2683,22 @@
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="14" t="s">
@@ -2940,7 +2942,7 @@
   <sheetPr/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2963,40 +2965,40 @@
   <sheetData>
     <row r="1" ht="30" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" ht="75" spans="1:12">
@@ -3007,22 +3009,22 @@
         <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="14" t="s">
@@ -3039,22 +3041,22 @@
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="14" t="s">
@@ -3071,22 +3073,22 @@
         <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="14" t="s">
@@ -3103,22 +3105,22 @@
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="14" t="s">
@@ -3135,22 +3137,22 @@
         <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="14" t="s">

--- a/OrangeHRM (Demo)/Test Cases_OHRM.xlsx
+++ b/OrangeHRM (Demo)/Test Cases_OHRM.xlsx
@@ -1659,7 +1659,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
